--- a/10.10.70.56/QDDSSRC_SCFLIB/QDDSSRC_SCFLIB.xlsx
+++ b/10.10.70.56/QDDSSRC_SCFLIB/QDDSSRC_SCFLIB.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\西祺\seedswine_erickao\seedswine-as400\10.10.70.56\QDDSSRC_SCFLIB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SeedsWine\SeedsWine\10.10.70.56\QDDSSRC_SCFLIB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B144EE09-F8C0-4582-B91C-0C434B276525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37D3742-924B-4831-80B1-2DF801BD6E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD1FAF31-783B-4AE3-A86F-797DB3C0F2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$F$452</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="739">
   <si>
     <t>C#EAPF</t>
   </si>
@@ -2239,6 +2242,30 @@
   </si>
   <si>
     <t>已下載</t>
+  </si>
+  <si>
+    <t>member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>規格書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2306,9 +2333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主題">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2346,7 +2373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2452,7 +2479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2594,7 +2621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2602,10 +2629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFAA4FE-FC1F-4FC2-A458-BB8AC6C60682}">
-  <dimension ref="A2:F452"/>
+  <dimension ref="A1:F452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="A453" sqref="A453"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2614,7 +2641,24 @@
     <col min="4" max="4" width="84.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2628,7 +2672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2642,7 +2686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2656,7 +2700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2670,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2684,7 +2728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2698,7 +2742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2712,7 +2756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2726,7 +2770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2740,7 +2784,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2754,7 +2798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2768,7 +2812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +2826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2796,7 +2840,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -2810,7 +2854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2823,8 +2867,11 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -2838,7 +2885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2852,7 +2899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2866,7 +2913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -2880,7 +2927,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -2893,8 +2940,11 @@
       <c r="D21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -2908,7 +2958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +2971,11 @@
       <c r="D23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2936,7 +2989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2950,7 +3003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2963,8 +3016,11 @@
       <c r="D26" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2978,7 +3034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2992,7 +3048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3006,7 +3062,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3020,7 +3076,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3034,7 +3090,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3048,7 +3104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3062,7 +3118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -3076,7 +3132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -3090,7 +3146,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -3104,7 +3160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -3117,8 +3173,11 @@
       <c r="D37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -3131,8 +3190,11 @@
       <c r="D38" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -3145,8 +3207,11 @@
       <c r="D39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -3160,7 +3225,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3173,8 +3238,11 @@
       <c r="D41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -3188,7 +3256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -3202,7 +3270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -3215,8 +3283,11 @@
       <c r="D44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -3229,8 +3300,11 @@
       <c r="D45" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -3244,7 +3318,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -3258,7 +3332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -3271,8 +3345,11 @@
       <c r="D48" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -3286,7 +3363,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -3300,7 +3377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -3313,8 +3390,11 @@
       <c r="D51" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -3327,8 +3407,11 @@
       <c r="D52" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
@@ -3342,7 +3425,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -3356,7 +3439,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -3369,8 +3452,11 @@
       <c r="D55" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -3383,8 +3469,11 @@
       <c r="D56" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -3397,8 +3486,11 @@
       <c r="D57" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -3412,7 +3504,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -3426,7 +3518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -3440,7 +3532,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -3454,7 +3546,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -3468,7 +3560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -3479,7 +3571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -3941,7 +4033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>153</v>
       </c>
@@ -3955,7 +4047,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>155</v>
       </c>
@@ -3969,7 +4061,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>156</v>
       </c>
@@ -3983,7 +4075,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>157</v>
       </c>
@@ -3997,7 +4089,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>158</v>
       </c>
@@ -4011,7 +4103,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>159</v>
       </c>
@@ -4025,7 +4117,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>160</v>
       </c>
@@ -4039,7 +4131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>161</v>
       </c>
@@ -4053,7 +4145,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>162</v>
       </c>
@@ -4067,7 +4159,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -4081,7 +4173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -4095,7 +4187,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -4109,7 +4201,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>170</v>
       </c>
@@ -4122,8 +4214,11 @@
       <c r="D109" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>171</v>
       </c>
@@ -4136,8 +4231,11 @@
       <c r="D110" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -4151,7 +4249,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>173</v>
       </c>
@@ -4879,7 +4977,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>262</v>
       </c>
@@ -4892,8 +4990,11 @@
       <c r="D161" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>265</v>
       </c>
@@ -4907,7 +5008,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>266</v>
       </c>
@@ -4921,7 +5022,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>267</v>
       </c>
@@ -4935,7 +5036,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>268</v>
       </c>
@@ -4949,7 +5050,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>269</v>
       </c>
@@ -4963,7 +5064,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>270</v>
       </c>
@@ -4977,7 +5078,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>271</v>
       </c>
@@ -4991,7 +5092,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>272</v>
       </c>
@@ -5005,7 +5106,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>279</v>
       </c>
@@ -5019,7 +5120,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>280</v>
       </c>
@@ -5033,7 +5134,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>281</v>
       </c>
@@ -5047,7 +5148,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>282</v>
       </c>
@@ -5061,7 +5162,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>283</v>
       </c>
@@ -5074,8 +5175,11 @@
       <c r="D174" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>284</v>
       </c>
@@ -5088,8 +5192,11 @@
       <c r="D175" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>285</v>
       </c>
@@ -5103,7 +5210,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>286</v>
       </c>
@@ -5116,8 +5223,11 @@
       <c r="D177" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>289</v>
       </c>
@@ -5130,8 +5240,11 @@
       <c r="D178" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>290</v>
       </c>
@@ -5145,7 +5258,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>291</v>
       </c>
@@ -5159,7 +5272,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>292</v>
       </c>
@@ -5173,7 +5286,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>293</v>
       </c>
@@ -5187,7 +5300,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>294</v>
       </c>
@@ -5201,7 +5314,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>295</v>
       </c>
@@ -5214,8 +5327,11 @@
       <c r="D184" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>296</v>
       </c>
@@ -5229,7 +5345,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>303</v>
       </c>
@@ -5243,7 +5359,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>304</v>
       </c>
@@ -5257,7 +5373,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>305</v>
       </c>
@@ -5271,7 +5387,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>306</v>
       </c>
@@ -5284,8 +5400,11 @@
       <c r="D189" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>307</v>
       </c>
@@ -5299,7 +5418,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>308</v>
       </c>
@@ -5313,7 +5432,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>309</v>
       </c>
@@ -5327,7 +5446,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>310</v>
       </c>
@@ -5341,7 +5460,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>315</v>
       </c>
@@ -5355,7 +5474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>316</v>
       </c>
@@ -5369,7 +5488,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>317</v>
       </c>
@@ -5383,7 +5502,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>318</v>
       </c>
@@ -5396,8 +5515,11 @@
       <c r="D197" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>319</v>
       </c>
@@ -5411,7 +5533,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>320</v>
       </c>
@@ -5425,7 +5547,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>321</v>
       </c>
@@ -5439,7 +5561,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>322</v>
       </c>
@@ -5453,7 +5575,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>328</v>
       </c>
@@ -5466,8 +5588,11 @@
       <c r="D202" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>329</v>
       </c>
@@ -5481,7 +5606,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>330</v>
       </c>
@@ -5495,7 +5620,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>331</v>
       </c>
@@ -5509,7 +5634,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>332</v>
       </c>
@@ -5523,7 +5648,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>333</v>
       </c>
@@ -5537,7 +5662,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>334</v>
       </c>
@@ -5775,7 +5900,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>362</v>
       </c>
@@ -5789,7 +5914,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>366</v>
       </c>
@@ -5803,7 +5928,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>367</v>
       </c>
@@ -5817,7 +5942,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>368</v>
       </c>
@@ -5831,7 +5956,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>369</v>
       </c>
@@ -5845,7 +5970,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>370</v>
       </c>
@@ -5859,7 +5984,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>371</v>
       </c>
@@ -5872,8 +5997,11 @@
       <c r="D231" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>372</v>
       </c>
@@ -5887,7 +6015,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>373</v>
       </c>
@@ -5901,7 +6029,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>376</v>
       </c>
@@ -5915,7 +6043,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>377</v>
       </c>
@@ -5929,7 +6057,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>378</v>
       </c>
@@ -5943,7 +6071,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>379</v>
       </c>
@@ -5957,7 +6085,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>380</v>
       </c>
@@ -5971,7 +6099,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>381</v>
       </c>
@@ -5984,8 +6112,11 @@
       <c r="D239" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>382</v>
       </c>
@@ -5999,7 +6130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>383</v>
       </c>
@@ -6013,7 +6144,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>387</v>
       </c>
@@ -6027,7 +6158,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>388</v>
       </c>
@@ -6041,7 +6172,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>389</v>
       </c>
@@ -6055,7 +6186,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>390</v>
       </c>
@@ -6069,7 +6200,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>391</v>
       </c>
@@ -6083,7 +6214,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>392</v>
       </c>
@@ -6096,8 +6227,11 @@
       <c r="D247" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>393</v>
       </c>
@@ -6111,7 +6245,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>394</v>
       </c>
@@ -6125,7 +6259,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>402</v>
       </c>
@@ -6139,7 +6273,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>403</v>
       </c>
@@ -6153,7 +6287,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>404</v>
       </c>
@@ -6167,7 +6301,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>405</v>
       </c>
@@ -6181,7 +6315,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>406</v>
       </c>
@@ -6195,7 +6329,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>407</v>
       </c>
@@ -6209,7 +6343,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>408</v>
       </c>
@@ -6222,8 +6356,11 @@
       <c r="D256" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>409</v>
       </c>
@@ -6237,7 +6374,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>414</v>
       </c>
@@ -6251,7 +6388,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>415</v>
       </c>
@@ -6265,7 +6402,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>416</v>
       </c>
@@ -6279,7 +6416,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>417</v>
       </c>
@@ -6293,7 +6430,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>418</v>
       </c>
@@ -6307,7 +6444,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>419</v>
       </c>
@@ -6321,7 +6458,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>420</v>
       </c>
@@ -6335,7 +6472,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>421</v>
       </c>
@@ -6349,7 +6486,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>425</v>
       </c>
@@ -6363,7 +6500,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>426</v>
       </c>
@@ -6377,7 +6514,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>427</v>
       </c>
@@ -6390,8 +6527,11 @@
       <c r="D268" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>428</v>
       </c>
@@ -6405,7 +6545,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>429</v>
       </c>
@@ -6419,7 +6559,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>430</v>
       </c>
@@ -6433,7 +6573,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>431</v>
       </c>
@@ -6671,7 +6811,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>451</v>
       </c>
@@ -6685,7 +6825,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>456</v>
       </c>
@@ -6699,7 +6839,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>457</v>
       </c>
@@ -6713,7 +6853,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>458</v>
       </c>
@@ -6727,7 +6867,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>459</v>
       </c>
@@ -6741,7 +6881,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>460</v>
       </c>
@@ -6755,7 +6895,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>461</v>
       </c>
@@ -6769,7 +6909,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>462</v>
       </c>
@@ -6783,7 +6923,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>463</v>
       </c>
@@ -6796,8 +6936,11 @@
       <c r="D297" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>467</v>
       </c>
@@ -6811,7 +6954,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>468</v>
       </c>
@@ -6825,7 +6968,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>469</v>
       </c>
@@ -6839,7 +6982,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>470</v>
       </c>
@@ -6853,7 +6996,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>471</v>
       </c>
@@ -6866,8 +7009,11 @@
       <c r="D302" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>472</v>
       </c>
@@ -6881,7 +7027,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>473</v>
       </c>
@@ -6895,7 +7041,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>474</v>
       </c>
@@ -6908,8 +7054,11 @@
       <c r="D305" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>479</v>
       </c>
@@ -6923,7 +7072,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>480</v>
       </c>
@@ -6937,7 +7086,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>481</v>
       </c>
@@ -6951,7 +7100,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>482</v>
       </c>
@@ -6965,7 +7114,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>483</v>
       </c>
@@ -6979,7 +7128,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>484</v>
       </c>
@@ -6993,7 +7142,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>485</v>
       </c>
@@ -7007,7 +7156,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>486</v>
       </c>
@@ -7021,7 +7170,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>490</v>
       </c>
@@ -7035,7 +7184,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>491</v>
       </c>
@@ -7049,7 +7198,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>492</v>
       </c>
@@ -7063,7 +7212,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>493</v>
       </c>
@@ -7077,7 +7226,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>494</v>
       </c>
@@ -7091,7 +7240,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>495</v>
       </c>
@@ -7105,7 +7254,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>496</v>
       </c>
@@ -7119,7 +7268,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>497</v>
       </c>
@@ -7133,7 +7282,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>504</v>
       </c>
@@ -7147,7 +7296,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>505</v>
       </c>
@@ -7161,7 +7310,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>506</v>
       </c>
@@ -7175,7 +7324,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>507</v>
       </c>
@@ -7189,7 +7338,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>508</v>
       </c>
@@ -7203,7 +7352,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>509</v>
       </c>
@@ -7216,8 +7365,11 @@
       <c r="D327" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>510</v>
       </c>
@@ -7230,8 +7382,11 @@
       <c r="D328" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>511</v>
       </c>
@@ -7244,8 +7399,11 @@
       <c r="D329" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>516</v>
       </c>
@@ -7258,8 +7416,11 @@
       <c r="D330" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>517</v>
       </c>
@@ -7272,8 +7433,11 @@
       <c r="D331" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>518</v>
       </c>
@@ -7286,8 +7450,11 @@
       <c r="D332" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>519</v>
       </c>
@@ -7301,7 +7468,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>520</v>
       </c>
@@ -7315,7 +7482,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>521</v>
       </c>
@@ -7329,7 +7496,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>522</v>
       </c>
@@ -7567,7 +7734,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>552</v>
       </c>
@@ -7581,7 +7748,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>561</v>
       </c>
@@ -7595,7 +7762,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>562</v>
       </c>
@@ -7609,7 +7776,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>563</v>
       </c>
@@ -7623,7 +7790,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>564</v>
       </c>
@@ -7637,7 +7804,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>565</v>
       </c>
@@ -7651,7 +7818,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>566</v>
       </c>
@@ -7665,7 +7832,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>567</v>
       </c>
@@ -7678,8 +7845,11 @@
       <c r="D360" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>568</v>
       </c>
@@ -7693,7 +7863,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>575</v>
       </c>
@@ -7706,8 +7876,11 @@
       <c r="D362" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>576</v>
       </c>
@@ -7721,7 +7894,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>577</v>
       </c>
@@ -7735,7 +7908,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>578</v>
       </c>
@@ -7748,8 +7921,11 @@
       <c r="D365" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>579</v>
       </c>
@@ -7763,7 +7939,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>580</v>
       </c>
@@ -7777,7 +7953,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>581</v>
       </c>
@@ -7790,8 +7966,11 @@
       <c r="D368" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>582</v>
       </c>
@@ -7804,8 +7983,11 @@
       <c r="D369" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>587</v>
       </c>
@@ -7819,7 +8001,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>588</v>
       </c>
@@ -7833,7 +8015,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>589</v>
       </c>
@@ -7847,7 +8029,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>590</v>
       </c>
@@ -7861,7 +8043,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>591</v>
       </c>
@@ -7875,7 +8057,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>592</v>
       </c>
@@ -7889,7 +8071,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>593</v>
       </c>
@@ -7903,7 +8085,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>594</v>
       </c>
@@ -7917,7 +8099,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>601</v>
       </c>
@@ -7931,7 +8113,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>602</v>
       </c>
@@ -7945,7 +8127,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>603</v>
       </c>
@@ -7959,7 +8141,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>604</v>
       </c>
@@ -7973,7 +8155,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>605</v>
       </c>
@@ -7987,7 +8169,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>606</v>
       </c>
@@ -8000,8 +8182,11 @@
       <c r="D383" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>607</v>
       </c>
@@ -8015,7 +8200,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>608</v>
       </c>
@@ -8029,7 +8214,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>615</v>
       </c>
@@ -8042,8 +8227,11 @@
       <c r="D386" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>616</v>
       </c>
@@ -8056,8 +8244,11 @@
       <c r="D387" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>617</v>
       </c>
@@ -8071,7 +8262,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>618</v>
       </c>
@@ -8085,7 +8276,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>619</v>
       </c>
@@ -8099,7 +8290,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>620</v>
       </c>
@@ -8113,7 +8304,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>621</v>
       </c>
@@ -8127,7 +8318,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>622</v>
       </c>
@@ -8141,7 +8332,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>630</v>
       </c>
@@ -8154,8 +8345,11 @@
       <c r="D394" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>631</v>
       </c>
@@ -8169,7 +8363,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>632</v>
       </c>
@@ -8183,7 +8377,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>633</v>
       </c>
@@ -8197,7 +8391,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>634</v>
       </c>
@@ -8211,7 +8405,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>635</v>
       </c>
@@ -8225,7 +8419,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>636</v>
       </c>
@@ -8463,7 +8657,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>666</v>
       </c>
@@ -8476,8 +8670,11 @@
       <c r="D417" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>674</v>
       </c>
@@ -8490,8 +8687,11 @@
       <c r="D418" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E418" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>675</v>
       </c>
@@ -8505,7 +8705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>676</v>
       </c>
@@ -8519,7 +8719,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>677</v>
       </c>
@@ -8533,7 +8733,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>678</v>
       </c>
@@ -8547,7 +8747,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>679</v>
       </c>
@@ -8561,7 +8761,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>680</v>
       </c>
@@ -8575,7 +8775,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>681</v>
       </c>
@@ -8589,7 +8789,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>686</v>
       </c>
@@ -8603,7 +8803,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>687</v>
       </c>
@@ -8617,7 +8817,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>688</v>
       </c>
@@ -8631,7 +8831,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>689</v>
       </c>
@@ -8645,7 +8845,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>690</v>
       </c>
@@ -8659,7 +8859,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>691</v>
       </c>
@@ -8673,7 +8873,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>692</v>
       </c>
@@ -8687,7 +8887,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>693</v>
       </c>
@@ -8701,7 +8901,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>700</v>
       </c>
@@ -8715,7 +8915,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>701</v>
       </c>
@@ -8728,8 +8928,11 @@
       <c r="D435" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>702</v>
       </c>
@@ -8743,7 +8946,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>703</v>
       </c>
@@ -8757,7 +8960,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>704</v>
       </c>
@@ -8771,7 +8974,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>705</v>
       </c>
@@ -8785,7 +8988,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>706</v>
       </c>
@@ -8799,7 +9002,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>707</v>
       </c>
@@ -8812,8 +9015,11 @@
       <c r="D441" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>714</v>
       </c>
@@ -8827,7 +9033,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>715</v>
       </c>
@@ -8841,7 +9047,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>716</v>
       </c>
@@ -8855,7 +9061,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>717</v>
       </c>
@@ -8869,7 +9075,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>718</v>
       </c>
@@ -8883,7 +9089,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>719</v>
       </c>
@@ -8897,7 +9103,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>720</v>
       </c>
@@ -8911,7 +9117,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>721</v>
       </c>
@@ -8925,7 +9131,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>728</v>
       </c>
@@ -8939,7 +9145,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>729</v>
       </c>
@@ -8952,8 +9158,11 @@
       <c r="D451" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>730</v>
       </c>
@@ -8966,8 +9175,12 @@
       <c r="D452" t="s">
         <v>731</v>
       </c>
+      <c r="E452" t="s">
+        <v>738</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F452" xr:uid="{7EFAA4FE-FC1F-4FC2-A458-BB8AC6C60682}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
